--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班改二.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班改二.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="146">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -764,37 +764,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職コード</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ作成日時</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ更新日時</t>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -805,13 +774,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職名</t>
-    <rPh sb="0" eb="3">
-      <t>ヤクショクメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -921,32 +883,6 @@
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン失敗表示</t>
-    <rPh sb="4" eb="6">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン処理にてログインに失敗した場合に表示</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1419,25 +1355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>滞在している学生、[今いる！][退出]ボタンを表示</t>
-    <rPh sb="0" eb="2">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タイシュツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（滞在管理システム）</t>
     <rPh sb="1" eb="3">
       <t>タイザイ</t>
@@ -1533,6 +1450,180 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「戻る」ボタン処理</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理にてログインに失敗した場合にログイン失敗画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面の戻るボタンを押すことで、ログイン画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面遷移</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>現在「今いる！」ボタンを押している滞在ユーザーと非滞在ユーザを見極められる表記を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面内滞在表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在、非滞在学生を区別して表示
+[今いる！][退出]ボタンを表示</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属研究室名称</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究室番号</t>
+    <rPh sb="0" eb="3">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2041,7 +2132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2333,13 +2424,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2348,16 +2433,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2369,7 +2457,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2377,6 +2468,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2396,14 +2490,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2953,7 +3062,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3134060" y="3286456"/>
+          <a:off x="3134060" y="3446476"/>
           <a:ext cx="1323640" cy="491854"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
@@ -3584,7 +3693,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6366734" y="1811318"/>
+          <a:off x="6366734" y="1971338"/>
           <a:ext cx="839096" cy="380104"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
@@ -8463,18 +8572,18 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -8490,14 +8599,14 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="68"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8513,12 +8622,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="79" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8537,7 +8646,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8556,13 +8665,13 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="84" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -8577,7 +8686,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -8596,7 +8705,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -8615,7 +8724,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -8634,7 +8743,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -8653,12 +8762,12 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="87" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E10" s="87"/>
       <c r="F10" s="87"/>
@@ -8674,7 +8783,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -8693,7 +8802,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -8712,13 +8821,13 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="86" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
@@ -8733,7 +8842,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -8752,7 +8861,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -8771,7 +8880,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -8790,7 +8899,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -8809,7 +8918,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -8828,14 +8937,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="78" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
@@ -8849,7 +8958,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -8868,7 +8977,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -8887,7 +8996,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -8906,7 +9015,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -8925,7 +9034,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -8944,7 +9053,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -8963,7 +9072,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -8982,7 +9091,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9001,7 +9110,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9020,7 +9129,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9032,7 +9141,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="81" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L29" s="82"/>
       <c r="M29" s="82"/>
@@ -9041,7 +9150,7 @@
       <c r="P29" s="83"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9053,20 +9162,20 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="69" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L30" s="70"/>
       <c r="M30" s="70" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N30" s="70"/>
       <c r="O30" s="70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="P30" s="75"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9085,7 +9194,7 @@
       <c r="P31" s="76"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9104,7 +9213,7 @@
       <c r="P32" s="76"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9123,7 +9232,7 @@
       <c r="P33" s="76"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9142,7 +9251,7 @@
       <c r="P34" s="76"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9161,7 +9270,7 @@
       <c r="P35" s="76"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9180,7 +9289,7 @@
       <c r="P36" s="77"/>
       <c r="Q36" s="51"/>
     </row>
-    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -9235,18 +9344,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -9277,14 +9386,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9302,7 +9411,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -9324,7 +9433,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -9344,13 +9453,13 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="72">
         <v>3</v>
       </c>
@@ -9359,24 +9468,24 @@
       <c r="H6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
       <c r="L6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
       <c r="E7" s="72" t="s">
         <v>60</v>
       </c>
@@ -9385,18 +9494,18 @@
       <c r="H7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
       <c r="L7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -9414,7 +9523,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -9432,7 +9541,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -9450,7 +9559,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -9468,7 +9577,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -9486,7 +9595,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -9504,7 +9613,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -9522,7 +9631,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9540,7 +9649,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9558,7 +9667,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -9576,7 +9685,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -9593,10 +9702,10 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -9614,7 +9723,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -9632,7 +9741,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -9650,7 +9759,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -9668,7 +9777,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -9686,7 +9795,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -9704,7 +9813,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -9722,7 +9831,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -9740,7 +9849,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -9758,7 +9867,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -9776,7 +9885,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -9794,7 +9903,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -9812,7 +9921,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -9829,10 +9938,10 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -9850,7 +9959,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -9868,7 +9977,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -9886,7 +9995,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -9904,7 +10013,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -9922,7 +10031,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -9940,7 +10049,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -9958,7 +10067,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -9978,17 +10087,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10008,21 +10117,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -10038,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
@@ -10053,14 +10162,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10078,13 +10187,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10100,11 +10209,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10120,7 +10229,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10138,14 +10247,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -10160,37 +10269,37 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="105"/>
+      <c r="E8" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="109"/>
       <c r="G8" s="36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
+        <v>96</v>
+      </c>
+      <c r="J8" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -10211,7 +10320,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -10232,7 +10341,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -10253,7 +10362,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -10274,7 +10383,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -10295,7 +10404,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -10316,7 +10425,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -10337,7 +10446,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -10358,7 +10467,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="33"/>
@@ -10379,7 +10488,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10400,7 +10509,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10421,7 +10530,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10442,7 +10551,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10463,7 +10572,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10484,7 +10593,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10505,7 +10614,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10526,7 +10635,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10547,7 +10656,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10568,7 +10677,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10586,7 +10695,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10604,7 +10713,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10622,7 +10731,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10640,7 +10749,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10658,7 +10767,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10676,7 +10785,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10694,7 +10803,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10712,7 +10821,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10730,7 +10839,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10748,7 +10857,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10766,7 +10875,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10784,7 +10893,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10804,25 +10913,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -10839,12 +10935,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10862,25 +10971,25 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="12" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -10911,14 +11020,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10936,7 +11045,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -10952,11 +11061,11 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10966,7 +11075,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10978,7 +11087,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -10996,7 +11105,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -11018,7 +11127,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -11040,12 +11149,12 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11060,7 +11169,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11078,7 +11187,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -11100,12 +11209,12 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -11120,7 +11229,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11138,7 +11247,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11156,7 +11265,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11174,7 +11283,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>12</v>
@@ -11196,7 +11305,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11216,7 +11325,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -11236,7 +11345,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11254,7 +11363,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11272,7 +11381,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11290,7 +11399,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11308,7 +11417,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11326,7 +11435,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11344,7 +11453,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11362,7 +11471,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11380,7 +11489,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11398,7 +11507,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11416,7 +11525,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11434,7 +11543,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11452,7 +11561,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11470,7 +11579,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11488,7 +11597,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11506,7 +11615,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11524,7 +11633,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11544,7 +11653,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -11585,22 +11694,25 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H15"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -11631,14 +11743,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11656,7 +11768,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11678,7 +11790,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -11698,7 +11810,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11716,27 +11828,27 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="101" t="s">
+      <c r="F7" s="100"/>
+      <c r="G7" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="101" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="39" t="s">
         <v>26</v>
       </c>
@@ -11747,10 +11859,10 @@
         <v>62</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11758,20 +11870,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="98" t="s">
+      <c r="F8" s="98"/>
+      <c r="G8" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="98" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -11786,7 +11898,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11794,18 +11906,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="98" t="s">
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="98" t="s">
+      <c r="H9" s="98"/>
+      <c r="I9" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="23" t="s">
         <v>36</v>
       </c>
@@ -11816,11 +11928,11 @@
         <v>63</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" ref="P9:P21" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <f t="shared" ref="P9:P16" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11828,18 +11940,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="98" t="s">
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="98" t="s">
+      <c r="H10" s="98"/>
+      <c r="I10" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="23" t="s">
         <v>37</v>
       </c>
@@ -11854,7 +11966,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11862,33 +11974,33 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="98"/>
+      <c r="I11" s="123" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -11896,29 +12008,35 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="98" t="s">
+      <c r="F12" s="98"/>
+      <c r="G12" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>138</v>
+      </c>
       <c r="P12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -11926,27 +12044,33 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>137</v>
+      </c>
       <c r="P13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11954,27 +12078,33 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="P14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11982,23 +12112,35 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="E15" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="98"/>
+      <c r="G15" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="P15" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12006,23 +12148,35 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="E16" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>138</v>
+      </c>
       <c r="P16" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12030,23 +12184,23 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P9:P21" si="2">IF(N17="",0,IF(O17="",0,IF(N17="低",$N$24,IF(N17="中",$N$25,$N$26))*IF(O17="小",$O$24,IF(O17="中",$O$25,$O$26))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12054,23 +12208,23 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12078,23 +12232,23 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -12102,23 +12256,23 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -12126,46 +12280,46 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="44" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P22" s="9">
         <f>SUM(P8:P21)</f>
-        <v>680</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -12183,7 +12337,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -12205,7 +12359,7 @@
       </c>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12227,7 +12381,7 @@
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12249,7 +12403,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12267,7 +12421,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12285,7 +12439,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12303,7 +12457,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12321,7 +12475,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12339,7 +12493,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12357,7 +12511,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12375,7 +12529,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12393,7 +12547,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12411,7 +12565,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -12429,7 +12583,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -12447,7 +12601,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -12465,7 +12619,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -12492,7 +12646,43 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
@@ -12502,47 +12692,11 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -12573,21 +12727,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -12618,14 +12772,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12643,7 +12797,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -12665,7 +12819,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -12685,215 +12839,215 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="101" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="105" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="107" t="s">
+      <c r="C7" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107" t="s">
+      <c r="C8" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="104" t="s">
+      <c r="F8" s="107"/>
+      <c r="G8" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12911,7 +13065,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
@@ -12933,7 +13087,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -12953,7 +13107,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12971,7 +13125,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -12989,7 +13143,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13007,7 +13161,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13025,7 +13179,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13043,7 +13197,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13061,7 +13215,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13079,7 +13233,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13097,7 +13251,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13115,7 +13269,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13133,7 +13287,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13151,7 +13305,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13169,7 +13323,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13187,7 +13341,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13205,7 +13359,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13223,7 +13377,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13241,7 +13395,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13259,7 +13413,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13277,7 +13431,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13295,7 +13449,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13313,7 +13467,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -13333,13 +13487,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -13356,16 +13513,13 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13388,18 +13542,18 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -13430,14 +13584,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13455,7 +13609,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -13477,7 +13631,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -13497,7 +13651,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -13515,14 +13669,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -13537,7 +13691,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -13555,7 +13709,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -13573,7 +13727,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -13591,7 +13745,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -13609,7 +13763,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -13627,7 +13781,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -13645,7 +13799,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -13663,7 +13817,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -13681,7 +13835,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13699,7 +13853,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13717,7 +13871,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13735,7 +13889,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13753,7 +13907,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13771,7 +13925,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13789,7 +13943,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13807,7 +13961,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13825,7 +13979,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13843,7 +13997,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13861,7 +14015,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13879,7 +14033,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13897,7 +14051,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13915,7 +14069,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13933,7 +14087,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13951,7 +14105,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13969,7 +14123,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13987,7 +14141,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14005,7 +14159,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14023,7 +14177,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14041,7 +14195,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14059,7 +14213,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14077,7 +14231,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14095,7 +14249,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14140,18 +14294,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -14182,14 +14336,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14207,7 +14361,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -14229,7 +14383,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -14249,7 +14403,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -14267,11 +14421,11 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>50</v>
@@ -14289,7 +14443,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -14307,7 +14461,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -14325,7 +14479,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -14343,7 +14497,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -14361,7 +14515,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -14379,7 +14533,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -14397,7 +14551,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -14415,7 +14569,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -14433,7 +14587,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14451,7 +14605,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14469,7 +14623,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14487,7 +14641,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14505,7 +14659,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14523,7 +14677,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14541,7 +14695,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14559,7 +14713,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14577,7 +14731,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14595,7 +14749,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14613,7 +14767,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14631,7 +14785,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14649,7 +14803,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14667,7 +14821,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14685,7 +14839,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14703,7 +14857,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14721,7 +14875,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14739,7 +14893,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14757,7 +14911,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14775,7 +14929,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14793,7 +14947,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14811,7 +14965,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14829,7 +14983,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14847,7 +15001,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14889,21 +15043,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -14934,14 +15088,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14959,7 +15113,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -14981,7 +15135,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15001,7 +15155,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15019,14 +15173,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -15041,7 +15195,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15059,7 +15213,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15077,7 +15231,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15095,7 +15249,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15113,7 +15267,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15131,7 +15285,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -15149,7 +15303,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -15167,7 +15321,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15185,7 +15339,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15203,7 +15357,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15221,7 +15375,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15239,7 +15393,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15257,7 +15411,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15275,7 +15429,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15293,7 +15447,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15311,7 +15465,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15329,7 +15483,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15347,7 +15501,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15365,7 +15519,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15383,7 +15537,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15401,7 +15555,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15419,7 +15573,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15437,7 +15591,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15455,7 +15609,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15473,7 +15627,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15491,7 +15645,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15509,7 +15663,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15527,7 +15681,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15545,7 +15699,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -15563,7 +15717,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -15580,7 +15734,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15598,7 +15752,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15639,22 +15793,22 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -15685,14 +15839,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15710,7 +15864,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -15732,11 +15886,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15752,7 +15906,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15770,29 +15924,29 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="I7" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="103"/>
+      <c r="K7" s="100"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15800,25 +15954,25 @@
       <c r="E8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="103"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="101" t="s">
+      <c r="J8" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="103"/>
+      <c r="K8" s="100"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15827,7 +15981,7 @@
         <v>70</v>
       </c>
       <c r="F9" s="110" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="G9" s="111"/>
       <c r="H9" s="26"/>
@@ -15835,7 +15989,7 @@
         <v>70</v>
       </c>
       <c r="J9" s="110" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K9" s="111"/>
       <c r="L9" s="2"/>
@@ -15844,20 +15998,20 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
       <c r="F10" s="110" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="G10" s="111"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
       <c r="J10" s="110" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="K10" s="111"/>
       <c r="L10" s="2"/>
@@ -15866,21 +16020,19 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
       <c r="F11" s="110" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="111"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="110" t="s">
-        <v>75</v>
-      </c>
+      <c r="J11" s="110"/>
       <c r="K11" s="111"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -15888,23 +16040,19 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="32" t="s">
-        <v>77</v>
-      </c>
+      <c r="E12" s="32"/>
       <c r="F12" s="110" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="G12" s="111"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="110" t="s">
-        <v>76</v>
-      </c>
+      <c r="J12" s="110"/>
       <c r="K12" s="111"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -15912,14 +16060,16 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="F13" s="110" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G13" s="111"/>
       <c r="H13" s="26"/>
@@ -15932,14 +16082,14 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
       <c r="F14" s="110" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G14" s="111"/>
       <c r="H14" s="26"/>
@@ -15952,7 +16102,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15970,7 +16120,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15988,7 +16138,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16006,7 +16156,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16024,7 +16174,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16042,7 +16192,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16060,7 +16210,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16078,7 +16228,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16096,7 +16246,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16114,7 +16264,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16132,7 +16282,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16150,7 +16300,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16168,7 +16318,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16186,7 +16336,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -16204,7 +16354,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -16222,7 +16372,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -16240,7 +16390,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -16258,7 +16408,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -16276,7 +16426,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -16294,7 +16444,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -16312,7 +16462,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -16330,7 +16480,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -16348,7 +16498,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -16366,7 +16516,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -16384,7 +16534,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16404,6 +16554,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -16420,15 +16579,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16451,18 +16601,18 @@
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -16478,14 +16628,14 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="68"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -16501,12 +16651,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="79" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -16525,7 +16675,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -16544,13 +16694,13 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="84" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -16565,7 +16715,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -16584,7 +16734,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -16603,7 +16753,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -16622,7 +16772,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -16641,73 +16791,73 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="118" t="str">
+      <c r="D10" s="112" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="86" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
@@ -16722,7 +16872,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -16741,7 +16891,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -16760,7 +16910,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -16779,7 +16929,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16798,7 +16948,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16817,14 +16967,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="78" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
@@ -16838,7 +16988,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16857,7 +17007,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16876,7 +17026,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16895,7 +17045,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16914,7 +17064,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16933,7 +17083,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16952,7 +17102,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16971,7 +17121,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16990,7 +17140,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -17000,7 +17150,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="81" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
@@ -17011,7 +17161,7 @@
       <c r="P28" s="83"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -17021,24 +17171,24 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="69" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J29" s="70"/>
       <c r="K29" s="70" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L29" s="70"/>
       <c r="M29" s="70" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N29" s="70"/>
       <c r="O29" s="70" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P29" s="75"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -17053,13 +17203,13 @@
       <c r="L30" s="72"/>
       <c r="M30" s="72"/>
       <c r="N30" s="72"/>
-      <c r="O30" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="P30" s="113"/>
+      <c r="O30" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="P30" s="114"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -17074,11 +17224,11 @@
       <c r="L31" s="72"/>
       <c r="M31" s="72"/>
       <c r="N31" s="72"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="116"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -17093,11 +17243,11 @@
       <c r="L32" s="72"/>
       <c r="M32" s="72"/>
       <c r="N32" s="72"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="116"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -17112,11 +17262,11 @@
       <c r="L33" s="72"/>
       <c r="M33" s="72"/>
       <c r="N33" s="72"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="116"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -17131,11 +17281,11 @@
       <c r="L34" s="72"/>
       <c r="M34" s="72"/>
       <c r="N34" s="72"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="116"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -17150,11 +17300,11 @@
       <c r="L35" s="74"/>
       <c r="M35" s="74"/>
       <c r="N35" s="74"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="118"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -17175,6 +17325,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -17184,12 +17340,6 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班改二.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班改二.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="148">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -736,24 +736,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>顧客情報テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ番号</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -765,16 +748,6 @@
   </si>
   <si>
     <t>FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職情報テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1597,19 +1570,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所属研究室名称</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1624,6 +1584,57 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究室テーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究室名称</t>
+    <rPh sb="0" eb="3">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入室フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退出フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>タイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢吹研A班</t>
+    <rPh sb="0" eb="2">
+      <t>ヤブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1735,7 +1746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1745,6 +1756,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,7 +2149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2430,11 +2447,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2442,11 +2468,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2457,10 +2495,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2468,9 +2503,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2490,29 +2522,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6422,11 +6448,14 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にゅう</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8568,8 +8597,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8583,7 +8612,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -8599,10 +8628,10 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="67" t="s">
-        <v>82</v>
+        <v>104</v>
+      </c>
+      <c r="P1" s="129">
+        <v>41782</v>
       </c>
       <c r="Q1" s="68"/>
     </row>
@@ -8622,7 +8651,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="79" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
@@ -8671,7 +8700,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="84" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -8767,7 +8796,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="87" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E10" s="87"/>
       <c r="F10" s="87"/>
@@ -8827,7 +8856,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="86" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
@@ -8944,7 +8973,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="78" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
@@ -9141,7 +9170,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="81" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L29" s="82"/>
       <c r="M29" s="82"/>
@@ -9162,15 +9191,15 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="69" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L30" s="70"/>
       <c r="M30" s="70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N30" s="70"/>
       <c r="O30" s="70" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P30" s="75"/>
       <c r="Q30" s="51"/>
@@ -9386,10 +9415,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9455,11 +9484,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="72">
         <v>3</v>
       </c>
@@ -9468,24 +9497,24 @@
       <c r="H6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
       <c r="L6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="72" t="s">
         <v>60</v>
       </c>
@@ -9494,15 +9523,15 @@
       <c r="H7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -9702,7 +9731,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -9938,7 +9967,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -10087,17 +10116,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10147,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
@@ -10162,10 +10191,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10193,7 +10222,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10213,7 +10242,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10251,10 +10280,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -10276,24 +10305,24 @@
       <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="110"/>
+      <c r="G8" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
+      <c r="J8" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -10913,12 +10942,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -10935,25 +10977,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10972,7 +11001,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -11020,10 +11049,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11065,7 +11094,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11154,7 +11183,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11214,7 +11243,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -11743,10 +11772,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11835,20 +11864,20 @@
       <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="108"/>
+      <c r="G7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="99" t="s">
+      <c r="H7" s="108"/>
+      <c r="I7" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="100"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="39" t="s">
         <v>26</v>
       </c>
@@ -11859,7 +11888,7 @@
         <v>62</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11878,12 +11907,12 @@
         <v>29</v>
       </c>
       <c r="H8" s="98"/>
-      <c r="I8" s="123" t="s">
+      <c r="I8" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -11912,12 +11941,12 @@
         <v>30</v>
       </c>
       <c r="H9" s="98"/>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="23" t="s">
         <v>36</v>
       </c>
@@ -11946,12 +11975,12 @@
         <v>31</v>
       </c>
       <c r="H10" s="98"/>
-      <c r="I10" s="123" t="s">
+      <c r="I10" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="23" t="s">
         <v>37</v>
       </c>
@@ -11977,23 +12006,23 @@
       <c r="E11" s="97"/>
       <c r="F11" s="98"/>
       <c r="G11" s="97" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H11" s="98"/>
-      <c r="I11" s="123" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="I11" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="1"/>
@@ -12016,12 +12045,12 @@
         <v>53</v>
       </c>
       <c r="H12" s="98"/>
-      <c r="I12" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="I12" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="23" t="s">
         <v>35</v>
       </c>
@@ -12029,7 +12058,7 @@
         <v>38</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="1"/>
@@ -12047,15 +12076,15 @@
       <c r="E13" s="97"/>
       <c r="F13" s="98"/>
       <c r="G13" s="97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H13" s="98"/>
-      <c r="I13" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
+      <c r="I13" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="23" t="s">
         <v>35</v>
       </c>
@@ -12063,7 +12092,7 @@
         <v>40</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="1"/>
@@ -12081,15 +12110,15 @@
       <c r="E14" s="97"/>
       <c r="F14" s="98"/>
       <c r="G14" s="97" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H14" s="98"/>
-      <c r="I14" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="I14" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="23" t="s">
         <v>37</v>
       </c>
@@ -12113,19 +12142,19 @@
         <v>8</v>
       </c>
       <c r="E15" s="97" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F15" s="98"/>
-      <c r="G15" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
+      <c r="G15" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="103"/>
+      <c r="I15" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="23" t="s">
         <v>37</v>
       </c>
@@ -12149,27 +12178,27 @@
         <v>9</v>
       </c>
       <c r="E16" s="97" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F16" s="98"/>
-      <c r="G16" s="121" t="s">
+      <c r="G16" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="103"/>
+      <c r="I16" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>38</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="1"/>
@@ -12189,14 +12218,14 @@
       <c r="G17" s="97"/>
       <c r="H17" s="98"/>
       <c r="I17" s="97"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
       <c r="L17" s="98"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="9">
-        <f t="shared" ref="P9:P21" si="2">IF(N17="",0,IF(O17="",0,IF(N17="低",$N$24,IF(N17="中",$N$25,$N$26))*IF(O17="小",$O$24,IF(O17="中",$O$25,$O$26))))</f>
+        <f t="shared" ref="P17:P21" si="2">IF(N17="",0,IF(O17="",0,IF(N17="低",$N$24,IF(N17="中",$N$25,$N$26))*IF(O17="小",$O$24,IF(O17="中",$O$25,$O$26))))</f>
         <v>0</v>
       </c>
     </row>
@@ -12213,8 +12242,8 @@
       <c r="G18" s="97"/>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
       <c r="L18" s="98"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
@@ -12237,8 +12266,8 @@
       <c r="G19" s="97"/>
       <c r="H19" s="98"/>
       <c r="I19" s="97"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
       <c r="L19" s="98"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
@@ -12261,8 +12290,8 @@
       <c r="G20" s="97"/>
       <c r="H20" s="98"/>
       <c r="I20" s="97"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
       <c r="L20" s="98"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
@@ -12285,8 +12314,8 @@
       <c r="G21" s="97"/>
       <c r="H21" s="98"/>
       <c r="I21" s="97"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
       <c r="L21" s="98"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
@@ -12301,18 +12330,18 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P22" s="9">
         <f>SUM(P8:P21)</f>
@@ -12646,6 +12675,49 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="E13:F13"/>
@@ -12654,49 +12726,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -12772,10 +12801,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12842,24 +12871,24 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="99" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="109" t="s">
+      <c r="F6" s="108"/>
+      <c r="G6" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -12868,21 +12897,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106" t="s">
+      <c r="C7" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -12892,21 +12921,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106" t="s">
+      <c r="C8" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108" t="s">
+      <c r="F8" s="114"/>
+      <c r="G8" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -12916,21 +12945,21 @@
     <row r="9" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106" t="s">
+      <c r="D9" s="112"/>
+      <c r="E9" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -12940,15 +12969,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -12958,15 +12987,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -12976,15 +13005,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -12994,15 +13023,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -13012,18 +13041,18 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -13032,15 +13061,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -13487,16 +13516,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -13513,13 +13539,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13584,10 +13613,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13673,10 +13702,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -14291,7 +14320,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -14336,10 +14365,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14425,7 +14454,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>50</v>
@@ -15043,7 +15072,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -15088,10 +15117,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15177,10 +15206,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -15793,8 +15822,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:G15"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -15839,10 +15868,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15890,7 +15919,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15929,21 +15958,21 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="100"/>
+      <c r="E7" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="107"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="100"/>
+      <c r="I7" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -15954,22 +15983,22 @@
       <c r="E8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="100"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="100"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -15978,24 +16007,24 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="111"/>
+        <v>69</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="117"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="111"/>
+        <v>69</v>
+      </c>
+      <c r="J9" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="117"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -16004,20 +16033,20 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="110" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="111"/>
+      <c r="F10" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="117"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="111"/>
+      <c r="J10" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="117"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -16026,18 +16055,18 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="111"/>
+      <c r="F11" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="117"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -16046,18 +16075,16 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="111"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="117"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="117"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -16066,20 +16093,20 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="111"/>
+      <c r="F13" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="117"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -16088,18 +16115,18 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="111"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="111"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="117"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -16108,16 +16135,18 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
+      <c r="F15" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="117"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="117"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -16126,16 +16155,16 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="117"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="117"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -16144,16 +16173,16 @@
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="117"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -16554,15 +16583,7 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -16573,12 +16594,20 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16612,7 +16641,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -16628,10 +16657,10 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="68"/>
     </row>
@@ -16651,7 +16680,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="79" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
@@ -16700,7 +16729,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="84" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -16795,20 +16824,20 @@
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="112" t="str">
+      <c r="D10" s="124" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
@@ -16817,17 +16846,17 @@
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
@@ -16836,17 +16865,17 @@
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
@@ -16857,7 +16886,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="86" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
@@ -16974,7 +17003,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
@@ -17150,7 +17179,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="81" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
@@ -17171,19 +17200,19 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="69" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J29" s="70"/>
       <c r="K29" s="70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L29" s="70"/>
       <c r="M29" s="70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N29" s="70"/>
       <c r="O29" s="70" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P29" s="75"/>
       <c r="Q29" s="51"/>
@@ -17203,10 +17232,10 @@
       <c r="L30" s="72"/>
       <c r="M30" s="72"/>
       <c r="N30" s="72"/>
-      <c r="O30" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="P30" s="114"/>
+      <c r="O30" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" s="119"/>
       <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -17224,8 +17253,8 @@
       <c r="L31" s="72"/>
       <c r="M31" s="72"/>
       <c r="N31" s="72"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="116"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="121"/>
       <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -17243,8 +17272,8 @@
       <c r="L32" s="72"/>
       <c r="M32" s="72"/>
       <c r="N32" s="72"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="116"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="121"/>
       <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -17262,8 +17291,8 @@
       <c r="L33" s="72"/>
       <c r="M33" s="72"/>
       <c r="N33" s="72"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="116"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="121"/>
       <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -17281,8 +17310,8 @@
       <c r="L34" s="72"/>
       <c r="M34" s="72"/>
       <c r="N34" s="72"/>
-      <c r="O34" s="115"/>
-      <c r="P34" s="116"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="121"/>
       <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -17300,8 +17329,8 @@
       <c r="L35" s="74"/>
       <c r="M35" s="74"/>
       <c r="N35" s="74"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="118"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="123"/>
       <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -17325,12 +17354,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -17340,6 +17363,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
